--- a/DOM_Banner/output/dept_banner/Sao Jiralerspong_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sao Jiralerspong_2023.xlsx
@@ -1169,7 +1169,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4242374293", "https://openalex.org/W2969515167", "https://openalex.org/W2092771806", "https://openalex.org/W4295905572", "https://openalex.org/W2931400096", "https://openalex.org/W67104293", "https://openalex.org/W2536106369", "https://openalex.org/W2484331045", "https://openalex.org/W2509762766", "https://openalex.org/W2438623550")</t>
+          <t>c("https://openalex.org/W2166148619", "https://openalex.org/W1967506091", "https://openalex.org/W2326908302", "https://openalex.org/W2989981638", "https://openalex.org/W2167587342", "https://openalex.org/W2262572336", "https://openalex.org/W1964065629", "https://openalex.org/W2530207093", "https://openalex.org/W3098385676", "https://openalex.org/W67104293")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sao Jiralerspong_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sao Jiralerspong_2023.xlsx
@@ -1346,7 +1346,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2969515167", "https://openalex.org/W2092771806", "https://openalex.org/W4295905572", "https://openalex.org/W2931400096", "https://openalex.org/W67104293", "https://openalex.org/W2536106369", "https://openalex.org/W2484331045", "https://openalex.org/W2509762766", "https://openalex.org/W2438623550", "https://openalex.org/W4242374293")</t>
+          <t>c("https://openalex.org/W67104293", "https://openalex.org/W2166148619", "https://openalex.org/W1967506091", "https://openalex.org/W2326908302", "https://openalex.org/W2989981638", "https://openalex.org/W2167587342", "https://openalex.org/W2262572336", "https://openalex.org/W1964065629", "https://openalex.org/W2530207093", "https://openalex.org/W3098385676")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sao Jiralerspong_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sao Jiralerspong_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1Department of Surgery/University of Arizona; 2University of Arizona; 3Baylor University; 4University of Arizona; 5University of Arizona; 6University of Arizona; 7University of Arizona Cancer Center; 8University of Arizona; 9University of Arizona Cancer Center; 10University of Arizona Cancer Center, Tucson, Arizona.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4322771459</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Abstract P1-05-04: Physician Practice Patterns of Breast Imaging After Treatment: Survey of Real-World Practice</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs22-p1-05-04</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs22-p1-05-04</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>1University of Arizona; 2University of Arizona; 3University of Wisconsin; 4University of Arizona; 5University of Arizona; 6University of Arizona; 7University of Arizona; 8University of Arizona; 9University of Arizona Cancer Center, Tucson, Arizona.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4322774752</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Abstract P4-04-02: Evaluation of Dronabinol to Decrease Opioid Use for Cancer- Induced Bone Pain</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs22-p4-04-02</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs22-p4-04-02</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jessica A. Martinez, Betsy C. Wertheim, Denise J. Roe, Mihra S. Taljanovic, H‐H. Sherry Chow, Wade M. Chew, Sima Ehsani, Sao Jiralerspong, Jennifer Segar, Pavani Chalasani</t>
+          <t>Mothaffar F. Rimawi, Polly Niravath, Tao Wang, Brent N. Rexer, Andres Forero, Antonio C. Wolff, Rita Nanda, Anna Maria Storniolo, Ian E. Krop, Matthew P. Goetz, Julie R. Nangia, Sao Jiralerspong, Anne C. Pavlick, Jamunarani Veeraraghavan, Carmine De Angelis, Carolina Gutiérrez, Rachel Schiff, Susan G. Hilsenbeck, C. Kent Osborne</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327950390</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Oxylipins as Biomarkers for Aromatase Inhibitor-Induced Arthralgia (AIA) in Breast Cancer Patients</t>
+          <t>https://openalex.org/W4361816877</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>Supplementary Table 1 from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Metabolites</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/metabo13030452</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22472814</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36984892</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/metabo13030452</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22472814</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361816877</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+          <t>https://openalex.org/W4361816878</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Supplementary Table 2 from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,50 +738,55 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22472814</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22472811.v1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22472814</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22472811.v1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361816878</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Supplementary Table 2 from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+          <t>https://openalex.org/W4361816882</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Data from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,50 +825,55 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22472811.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6528333</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22472811.v1</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6528333</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361816882</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Data from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+          <t>https://openalex.org/W4361816885</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Supplementary Table 1 from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528333</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22472814.v1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528333</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22472814.v1</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361816885</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+          <t>https://openalex.org/W4361816889</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Data from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,50 +999,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22472814.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6528333.v1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22472814.v1</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6528333.v1</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361816889</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Data from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+          <t>https://openalex.org/W4361816895</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Supplementary Table 2 from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,50 +1086,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528333.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22472811</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528333.v1</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22472811</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mothaffar F. Rimawi, Polly Niravath, Tao Wang, Brent N. Rexer, Andres Forero, Antonio C. Wolff, Rita Nanda, Anna Maria Storniolo, Ian E. Krop, Matthew P. Goetz, Julie R. Nangia, Sao Jiralerspong, Anne C. Pavlick, Jamunarani Veeraraghavan, Carmine De Angelis, Carolina Gutiérrez, Rachel Schiff, Susan G. Hilsenbeck, C. Kent Osborne</t>
+          <t>Jessica A. Martinez, Betsy C. Wertheim, Denise J. Roe, Mihra S. Taljanovic, H‐H. Sherry Chow, Wade M. Chew, Sima Ehsani, Sao Jiralerspong, Jennifer Segar, Pavani Chalasani</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361816895</t>
+          <t>The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; Department of Radiology, University of New Mexico, Albuquerque, NM 87106, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Supplementary Table 2 from TBCRC023: A Randomized Phase II Neoadjuvant Trial of Lapatinib Plus Trastuzumab Without Chemotherapy for 12 versus 24 Weeks in Patients with HER2-Positive Breast Cancer</t>
+          <t>https://openalex.org/W4327950390</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Oxylipins as Biomarkers for Aromatase Inhibitor-Induced Arthralgia (AIA) in Breast Cancer Patients</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Metabolites</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22472811</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>https://doi.org/10.3390/metabo13030452</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22472811</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36984892</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/metabo13030452</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
